--- a/xlsx/首席财务官_intext.xlsx
+++ b/xlsx/首席财务官_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>政策_政策_管理_首席财务官</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>企業集團</t>
+    <t>企业集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E9%96%A5</t>
   </si>
   <si>
-    <t>財閥</t>
+    <t>财阀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E9%95%B7</t>
   </si>
   <si>
-    <t>資訊長</t>
+    <t>资讯长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
+    <t>非执行董事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
+    <t>总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -161,37 +161,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E9%9A%90%E7%A7%81%E4%BF%9D%E5%AF%86%E5%AE%98</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CTO</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%8A%A1%E6%80%BB%E7%9B%91</t>
